--- a/data/survey_data/labelled_data/sat_data_combined_vertical.xlsx
+++ b/data/survey_data/labelled_data/sat_data_combined_vertical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weijiechua/Desktop/ImperialClasses/Courses/thirdterm/individual/official/official_sat_chatbot/data/survey_data/labelled_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A95401-881C-F14A-A46A-F1B905BDF2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2135A3AB-4654-CC44-A7FD-79D0DA7FAB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="687">
   <si>
     <t>level_0</t>
   </si>
@@ -2080,7 +2080,10 @@
     <t>You can write a blog post sharing your success story, in which you can discuss your ideas, actions, commitments, lessons you learned, and the feeling about compassion energy. You can also share them to the forum!</t>
   </si>
   <si>
-    <t>empathy_level</t>
+    <t>empathy_score</t>
+  </si>
+  <si>
+    <t>response</t>
   </si>
 </sst>
 </file>
@@ -2448,8 +2451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="G262" sqref="G262"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2464,8 +2467,8 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>0</v>
+      <c r="D1" s="1" t="s">
+        <v>686</v>
       </c>
       <c r="G1" t="s">
         <v>685</v>
